--- a/牛客笔试题/传参.xlsx
+++ b/牛客笔试题/传参.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12140" windowHeight="4320"/>
+    <workbookView windowWidth="13875" windowHeight="10275"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,15 +15,26 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2">
+  <si>
+    <t>传参的传递值和传递应用有一个不错的博客</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/hpyg/p/8005599.html</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,9 +43,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -48,12 +83,65 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -62,68 +150,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,49 +172,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -192,19 +196,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -216,7 +328,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -228,7 +346,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,133 +364,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,6 +387,84 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -405,236 +487,161 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -728,8 +735,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1270" y="196850"/>
-          <a:ext cx="4343400" cy="3460750"/>
+          <a:off x="1270" y="190500"/>
+          <a:ext cx="4730115" cy="3340100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -770,8 +777,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="152400" y="3829050"/>
-          <a:ext cx="2355850" cy="2882900"/>
+          <a:off x="152400" y="3695700"/>
+          <a:ext cx="2576830" cy="2781300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -812,8 +819,218 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3079750" y="4692650"/>
-          <a:ext cx="8147685" cy="1073150"/>
+          <a:off x="3355975" y="4527550"/>
+          <a:ext cx="8884285" cy="1035050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>77470</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>97790</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="77470" y="7791450"/>
+          <a:ext cx="4895850" cy="3019425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50165</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>31115</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="271780" y="11039475"/>
+          <a:ext cx="9953625" cy="4295775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>193040</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>53975</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4846955" y="9991725"/>
+          <a:ext cx="4514850" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>97790</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="319405" y="16078200"/>
+          <a:ext cx="6934200" cy="3190875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>21590</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>102870</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="464820" y="19821525"/>
+          <a:ext cx="2962275" cy="2266950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1116,17 +1333,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B137:C141"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="I138" sqref="I138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.90909090909091" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="2.90833333333333" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="16384" width="2.90909090909091" customWidth="1"/>
+    <col min="1" max="16384" width="2.90833333333333" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="137" spans="3:3">
+      <c r="C137" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B141" r:id="rId2" display="https://www.cnblogs.com/hpyg/p/8005599.html"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1143,7 +1374,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1160,7 +1391,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
